--- a/src/test/resources/testdatas/TestData.xlsx
+++ b/src/test/resources/testdatas/TestData.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="validLoginData" sheetId="1" state="visible" r:id="rId3"/>
@@ -21,24 +21,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="4">
   <si>
-    <t xml:space="preserve">email</t>
+    <t xml:space="preserve">username</t>
   </si>
   <si>
     <t xml:space="preserve">password</t>
   </si>
   <si>
-    <t xml:space="preserve">cuong123@gmail.com </t>
+    <t xml:space="preserve">standard_user </t>
   </si>
   <si>
-    <t xml:space="preserve">Ptno1957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">username</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ptno1957</t>
+    <t xml:space="preserve">secret_sauce </t>
   </si>
 </sst>
 </file>
@@ -114,12 +108,16 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -314,28 +312,29 @@
   </sheetPr>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="5.78"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="12.24"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="13"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="46.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
+    <row r="2" customFormat="false" ht="35.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -355,29 +354,33 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" s="0" t="s">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="35.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
+    <row r="2" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="0" t="s">
-        <v>5</v>
-      </c>
+      <c r="B2" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/src/test/resources/testdatas/TestData.xlsx
+++ b/src/test/resources/testdatas/TestData.xlsx
@@ -5,11 +5,11 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="validLoginData" sheetId="1" state="visible" r:id="rId3"/>
-    <sheet name="inValidLoginData" sheetId="2" state="visible" r:id="rId4"/>
+    <sheet name="invalidLoginData" sheetId="2" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="5">
   <si>
     <t xml:space="preserve">username</t>
   </si>
@@ -29,10 +29,13 @@
     <t xml:space="preserve">password</t>
   </si>
   <si>
-    <t xml:space="preserve">standard_user </t>
-  </si>
-  <si>
-    <t xml:space="preserve">secret_sauce </t>
+    <t xml:space="preserve">standard_user</t>
+  </si>
+  <si>
+    <t xml:space="preserve">secret_sauce</t>
+  </si>
+  <si>
+    <t xml:space="preserve">problem_user</t>
   </si>
 </sst>
 </file>
@@ -312,14 +315,14 @@
   </sheetPr>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F7" activeCellId="0" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="12.24"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="13"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -356,7 +359,7 @@
   </sheetPr>
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -372,7 +375,7 @@
     </row>
     <row r="2" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>3</v>
